--- a/data/trans_orig/P14B18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B18-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB07623-0263-4ECA-9F26-B113B11F154B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF8B2E9E-F22B-49AC-B6C0-521F457EE5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F218AF7-3BA9-475B-9237-D8F5EE9527AE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A166C017-E761-43E9-85D7-ED2F23F2F085}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="327">
   <si>
     <t>Población cuya mala circulación le limita en 2012 (Tasa respuesta: 6,19%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>58,88%</t>
   </si>
   <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>57,52%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,19 +109,19 @@
     <t>41,12%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
   </si>
   <si>
     <t>42,48%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -133,49 +133,49 @@
     <t>88,11%</t>
   </si>
   <si>
-    <t>64,23%</t>
+    <t>64,89%</t>
   </si>
   <si>
     <t>58,51%</t>
   </si>
   <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>35,77%</t>
+    <t>35,11%</t>
   </si>
   <si>
     <t>41,49%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
   </si>
   <si>
     <t>34,16%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -184,55 +184,55 @@
     <t>68,44%</t>
   </si>
   <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
   </si>
   <si>
     <t>61,2%</t>
   </si>
   <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>63,13%</t>
   </si>
   <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
   </si>
   <si>
     <t>31,56%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
   </si>
   <si>
     <t>38,8%</t>
   </si>
   <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
   </si>
   <si>
     <t>36,87%</t>
   </si>
   <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -241,55 +241,55 @@
     <t>66,1%</t>
   </si>
   <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>56,51%</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
   </si>
   <si>
     <t>33,9%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
   </si>
   <si>
     <t>43,49%</t>
   </si>
   <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -298,109 +298,109 @@
     <t>71,99%</t>
   </si>
   <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
   </si>
   <si>
     <t>59,79%</t>
   </si>
   <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>42,71%</t>
   </si>
   <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
   </si>
   <si>
     <t>40,21%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
   </si>
   <si>
     <t>61,66%</t>
   </si>
   <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>41,41%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -412,7 +412,7 @@
     <t>30,29%</t>
   </si>
   <si>
-    <t>74,83%</t>
+    <t>72,93%</t>
   </si>
   <si>
     <t>47,15%</t>
@@ -421,28 +421,28 @@
     <t>13,48%</t>
   </si>
   <si>
-    <t>88,54%</t>
+    <t>85,45%</t>
   </si>
   <si>
     <t>38,73%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
-    <t>25,17%</t>
+    <t>27,07%</t>
   </si>
   <si>
     <t>52,85%</t>
   </si>
   <si>
-    <t>11,46%</t>
+    <t>14,55%</t>
   </si>
   <si>
     <t>86,52%</t>
@@ -451,10 +451,10 @@
     <t>61,27%</t>
   </si>
   <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>32,35%</t>
@@ -469,19 +469,19 @@
     <t>53,81%</t>
   </si>
   <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>48,27%</t>
   </si>
   <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
   <si>
     <t>67,65%</t>
@@ -496,235 +496,223 @@
     <t>46,19%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
   </si>
   <si>
     <t>51,73%</t>
   </si>
   <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
   </si>
   <si>
     <t>46,64%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
   </si>
   <si>
     <t>58,48%</t>
   </si>
   <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
   </si>
   <si>
     <t>53,36%</t>
   </si>
   <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
   </si>
   <si>
     <t>54,75%</t>
   </si>
   <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
   </si>
   <si>
     <t>49,45%</t>
   </si>
   <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
   </si>
   <si>
     <t>50,6%</t>
   </si>
   <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
+    <t>35,37%</t>
   </si>
   <si>
     <t>50,34%</t>
   </si>
   <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
   </si>
   <si>
     <t>50,55%</t>
   </si>
   <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
   </si>
   <si>
     <t>49,4%</t>
   </si>
   <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
+    <t>64,63%</t>
   </si>
   <si>
     <t>49,66%</t>
   </si>
   <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
   </si>
   <si>
     <t>37,09%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
   </si>
   <si>
     <t>40,48%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
   </si>
   <si>
     <t>39,86%</t>
   </si>
   <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
   </si>
   <si>
     <t>62,91%</t>
   </si>
   <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
   </si>
   <si>
     <t>60,14%</t>
   </si>
   <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
   </si>
   <si>
     <t>39,56%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
   </si>
   <si>
     <t>47,02%</t>
   </si>
   <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
   </si>
   <si>
     <t>45,2%</t>
   </si>
   <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
+    <t>39,42%</t>
   </si>
   <si>
     <t>60,44%</t>
   </si>
   <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
   </si>
   <si>
     <t>52,98%</t>
   </si>
   <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
   </si>
   <si>
     <t>54,8%</t>
   </si>
   <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
+    <t>60,58%</t>
   </si>
   <si>
     <t>Población cuya mala circulación le limita en 2023 (Tasa respuesta: 8,56%)</t>
@@ -739,19 +727,19 @@
     <t>47,91%</t>
   </si>
   <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
   </si>
   <si>
     <t>40,79%</t>
   </si>
   <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -760,244 +748,238 @@
     <t>52,09%</t>
   </si>
   <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>59,21%</t>
   </si>
   <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>37,51%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>29,49%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
   <si>
     <t>32,27%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
   </si>
   <si>
     <t>62,49%</t>
   </si>
   <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>70,51%</t>
   </si>
   <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
   </si>
   <si>
     <t>67,73%</t>
   </si>
   <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
   </si>
   <si>
     <t>31,66%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
   </si>
   <si>
     <t>32,34%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
   </si>
   <si>
     <t>32,13%</t>
   </si>
   <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
   </si>
   <si>
     <t>68,34%</t>
   </si>
   <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
   </si>
   <si>
     <t>67,66%</t>
   </si>
   <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
   </si>
   <si>
     <t>67,87%</t>
   </si>
   <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
   </si>
   <si>
     <t>34,12%</t>
   </si>
   <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
   </si>
   <si>
     <t>36,01%</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
+    <t>46,46%</t>
   </si>
   <si>
     <t>35,35%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
   </si>
   <si>
     <t>65,88%</t>
   </si>
   <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
   </si>
   <si>
     <t>63,99%</t>
   </si>
   <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
+    <t>53,54%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
   </si>
   <si>
     <t>39,01%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
   </si>
   <si>
     <t>44,19%</t>
   </si>
   <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
   </si>
   <si>
     <t>42,75%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
   </si>
   <si>
     <t>60,99%</t>
   </si>
   <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
   </si>
   <si>
     <t>55,81%</t>
   </si>
   <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
   </si>
   <si>
     <t>34,97%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
   </si>
   <si>
     <t>37,26%</t>
@@ -1006,43 +988,37 @@
     <t>33,14%</t>
   </si>
   <si>
-    <t>42,79%</t>
-  </si>
-  <si>
     <t>36,56%</t>
   </si>
   <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
   </si>
   <si>
     <t>65,03%</t>
   </si>
   <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
   </si>
   <si>
     <t>62,74%</t>
   </si>
   <si>
-    <t>57,21%</t>
-  </si>
-  <si>
     <t>66,86%</t>
   </si>
   <si>
     <t>63,44%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3CA607-9DAA-449A-A31D-BA13B1303888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65054397-AEC9-4812-9DB3-BE6FD06B4D07}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2517,7 +2493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AAFADF-CC64-499E-8F9F-4AA1507AD6AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC023C32-E35E-493A-B4DF-22ED4AF2D923}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3127,7 +3103,7 @@
         <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -3136,13 +3112,13 @@
         <v>38584</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3133,13 @@
         <v>8843</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -3172,13 +3148,13 @@
         <v>29220</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3187,13 +3163,13 @@
         <v>38063</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3237,13 @@
         <v>6224</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -3276,13 +3252,13 @@
         <v>30756</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -3291,13 +3267,13 @@
         <v>36980</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,13 +3288,13 @@
         <v>10559</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -3327,13 +3303,13 @@
         <v>45227</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -3342,13 +3318,13 @@
         <v>55786</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3392,13 @@
         <v>32324</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>100</v>
@@ -3431,13 +3407,13 @@
         <v>119013</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -3446,13 +3422,13 @@
         <v>151337</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3443,13 @@
         <v>49388</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
@@ -3482,13 +3458,13 @@
         <v>134110</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -3497,13 +3473,13 @@
         <v>183498</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,7 +3556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDDADA1-23F7-4FBF-9B84-4D81FDB0D0B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351AA4FC-AD1B-4006-B7DB-DCFB5C7F7E6A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3597,7 +3573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3707,10 +3683,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3719,13 +3695,13 @@
         <v>6877</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3734,13 +3710,13 @@
         <v>6877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,7 +3734,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -3770,13 +3746,13 @@
         <v>7477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -3785,13 +3761,13 @@
         <v>9983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3835,13 @@
         <v>10744</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -3874,13 +3850,13 @@
         <v>15934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3889,13 +3865,13 @@
         <v>26677</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3886,13 @@
         <v>17897</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>79</v>
@@ -3925,13 +3901,13 @@
         <v>38088</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>105</v>
@@ -3940,13 +3916,13 @@
         <v>55987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +3990,13 @@
         <v>12593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -4029,13 +4005,13 @@
         <v>28977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -4044,13 +4020,13 @@
         <v>41571</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4041,13 @@
         <v>27190</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -4080,13 +4056,13 @@
         <v>60614</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>144</v>
@@ -4095,13 +4071,13 @@
         <v>87803</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4145,13 @@
         <v>11262</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -4184,13 +4160,13 @@
         <v>22387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4199,13 +4175,13 @@
         <v>33648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4196,13 @@
         <v>21748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -4235,13 +4211,13 @@
         <v>39779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -4250,13 +4226,13 @@
         <v>61528</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4300,13 @@
         <v>16942</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -4339,13 +4315,13 @@
         <v>50036</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -4354,13 +4330,13 @@
         <v>66978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4351,13 @@
         <v>26492</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>98</v>
@@ -4390,13 +4366,13 @@
         <v>63190</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -4405,13 +4381,13 @@
         <v>89681</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4455,13 @@
         <v>51541</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H19" s="7">
         <v>197</v>
@@ -4494,13 +4470,13 @@
         <v>124210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7">
         <v>266</v>
@@ -4509,13 +4485,13 @@
         <v>175751</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4506,13 @@
         <v>95833</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>359</v>
@@ -4545,13 +4521,13 @@
         <v>209148</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>330</v>
+        <v>69</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>482</v>
@@ -4560,13 +4536,13 @@
         <v>304981</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B18-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF8B2E9E-F22B-49AC-B6C0-521F457EE5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC70B9F6-534E-46AB-9ABA-5A5AB7401B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A166C017-E761-43E9-85D7-ED2F23F2F085}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C961D8F-450B-474E-AA65-53C010DC2E86}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -85,19 +85,19 @@
     <t>58,88%</t>
   </si>
   <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
   </si>
   <si>
     <t>57,52%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,187 +109,187 @@
     <t>41,12%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
   </si>
   <si>
     <t>42,48%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>64,89%</t>
+    <t>60,24%</t>
   </si>
   <si>
     <t>58,51%</t>
   </si>
   <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>35,11%</t>
+    <t>39,76%</t>
   </si>
   <si>
     <t>41,49%</t>
   </si>
   <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
   </si>
   <si>
     <t>34,16%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>68,44%</t>
   </si>
   <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
   </si>
   <si>
     <t>61,2%</t>
   </si>
   <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
   </si>
   <si>
     <t>63,13%</t>
   </si>
   <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
   </si>
   <si>
     <t>31,56%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
   </si>
   <si>
     <t>38,8%</t>
   </si>
   <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
   </si>
   <si>
     <t>36,87%</t>
   </si>
   <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>66,1%</t>
   </si>
   <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>56,51%</t>
   </si>
   <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
   </si>
   <si>
     <t>33,9%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
   </si>
   <si>
     <t>43,49%</t>
   </si>
   <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -298,64 +298,64 @@
     <t>71,99%</t>
   </si>
   <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>59,79%</t>
   </si>
   <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
   </si>
   <si>
     <t>42,71%</t>
   </si>
   <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
   </si>
   <si>
     <t>40,21%</t>
   </si>
   <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
   </si>
   <si>
     <t>58,59%</t>
@@ -364,31 +364,31 @@
     <t>52,76%</t>
   </si>
   <si>
-    <t>63,72%</t>
+    <t>64,07%</t>
   </si>
   <si>
     <t>61,66%</t>
   </si>
   <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
   </si>
   <si>
     <t>41,41%</t>
   </si>
   <si>
-    <t>36,28%</t>
+    <t>35,93%</t>
   </si>
   <si>
     <t>47,24%</t>
@@ -397,322 +397,328 @@
     <t>38,34%</t>
   </si>
   <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya mala circulación le limita en 2015 (Tasa respuesta: 4,61%)</t>
+    <t>Población cuya mala circulación le limita en 2016 (Tasa respuesta: 4,61%)</t>
   </si>
   <si>
     <t>30,29%</t>
   </si>
   <si>
-    <t>72,93%</t>
+    <t>73,91%</t>
   </si>
   <si>
     <t>47,15%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>38,73%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
-    <t>27,07%</t>
+    <t>26,09%</t>
   </si>
   <si>
     <t>52,85%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>61,27%</t>
   </si>
   <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>32,35%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
   </si>
   <si>
     <t>48,27%</t>
   </si>
   <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
   </si>
   <si>
     <t>67,65%</t>
   </si>
   <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
   </si>
   <si>
     <t>51,73%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
   </si>
   <si>
     <t>46,64%</t>
   </si>
   <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
+    <t>33,19%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
   </si>
   <si>
     <t>58,48%</t>
   </si>
   <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
   </si>
   <si>
     <t>53,36%</t>
   </si>
   <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
+    <t>66,81%</t>
   </si>
   <si>
     <t>54,75%</t>
   </si>
   <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
   </si>
   <si>
     <t>49,45%</t>
   </si>
   <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
   </si>
   <si>
     <t>50,6%</t>
   </si>
   <si>
-    <t>35,37%</t>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
   </si>
   <si>
     <t>50,34%</t>
   </si>
   <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
   </si>
   <si>
     <t>50,55%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
   </si>
   <si>
     <t>49,4%</t>
   </si>
   <si>
-    <t>64,63%</t>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
   </si>
   <si>
     <t>49,66%</t>
   </si>
   <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
   </si>
   <si>
     <t>37,09%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
   </si>
   <si>
     <t>40,48%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
   </si>
   <si>
     <t>39,86%</t>
   </si>
   <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
   </si>
   <si>
     <t>62,91%</t>
   </si>
   <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
   </si>
   <si>
     <t>60,14%</t>
   </si>
   <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
   </si>
   <si>
     <t>39,56%</t>
   </si>
   <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
   </si>
   <si>
     <t>47,02%</t>
   </si>
   <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
   </si>
   <si>
     <t>45,2%</t>
   </si>
   <si>
-    <t>39,42%</t>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
   </si>
   <si>
     <t>60,44%</t>
   </si>
   <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
   </si>
   <si>
     <t>52,98%</t>
   </si>
   <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
   </si>
   <si>
     <t>54,8%</t>
   </si>
   <si>
-    <t>60,58%</t>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
   </si>
   <si>
     <t>Población cuya mala circulación le limita en 2023 (Tasa respuesta: 8,56%)</t>
@@ -883,9 +889,6 @@
     <t>36,01%</t>
   </si>
   <si>
-    <t>46,46%</t>
-  </si>
-  <si>
     <t>35,35%</t>
   </si>
   <si>
@@ -905,9 +908,6 @@
   </si>
   <si>
     <t>63,99%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
   </si>
   <si>
     <t>64,65%</t>
@@ -1430,7 +1430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65054397-AEC9-4812-9DB3-BE6FD06B4D07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4A2049-67D2-4254-BE41-7BF04A02D614}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2493,7 +2493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC023C32-E35E-493A-B4DF-22ED4AF2D923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48712987-4744-4F35-843A-45DD857B3836}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2948,7 +2948,7 @@
         <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -2957,13 +2957,13 @@
         <v>40729</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2978,13 @@
         <v>14356</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -2993,13 +2993,13 @@
         <v>34933</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -3008,13 +3008,13 @@
         <v>49288</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3082,13 @@
         <v>8649</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3097,13 +3097,13 @@
         <v>29935</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -3112,13 +3112,13 @@
         <v>38584</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3133,13 @@
         <v>8843</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -3148,10 +3148,10 @@
         <v>29220</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>187</v>
@@ -3428,7 +3428,7 @@
         <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>48</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3443,13 @@
         <v>49388</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
@@ -3458,13 +3458,13 @@
         <v>134110</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -3473,13 +3473,13 @@
         <v>183498</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,7 +3556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351AA4FC-AD1B-4006-B7DB-DCFB5C7F7E6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C3750C-F82C-444C-8847-F5BE76D63613}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3573,7 +3573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3683,10 +3683,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3695,13 +3695,13 @@
         <v>6877</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3710,13 +3710,13 @@
         <v>6877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3734,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -3746,13 +3746,13 @@
         <v>7477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -3761,13 +3761,13 @@
         <v>9983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3835,13 @@
         <v>10744</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -3850,13 +3850,13 @@
         <v>15934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3865,13 +3865,13 @@
         <v>26677</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3886,13 @@
         <v>17897</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>79</v>
@@ -3901,13 +3901,13 @@
         <v>38088</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>105</v>
@@ -3916,13 +3916,13 @@
         <v>55987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3990,13 @@
         <v>12593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -4005,13 +4005,13 @@
         <v>28977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -4020,13 +4020,13 @@
         <v>41571</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4041,13 @@
         <v>27190</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -4056,13 +4056,13 @@
         <v>60614</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>144</v>
@@ -4071,13 +4071,13 @@
         <v>87803</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4145,13 @@
         <v>11262</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -4160,13 +4160,13 @@
         <v>22387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4175,13 +4175,13 @@
         <v>33648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4196,13 @@
         <v>21748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -4211,13 +4211,13 @@
         <v>39779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
